--- a/052RIPE&RouteViews/routeviews_rrc_list.xlsx
+++ b/052RIPE&RouteViews/routeviews_rrc_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Crawler4Caida\052RIPE&amp;RouteViews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A180D7E-8E6C-4462-A881-FC58B72640B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D899C612-8FCB-45CC-815B-7A4CC2DF6508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="26310" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
